--- a/const/game_numerics/technologies.xlsx
+++ b/const/game_numerics/technologies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="620" windowWidth="32180" windowHeight="17080"/>
+    <workbookView xWindow="620" yWindow="320" windowWidth="32180" windowHeight="17080"/>
   </bookViews>
   <sheets>
     <sheet name="住宅" sheetId="1" r:id="rId1"/>
@@ -8997,7 +8997,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:I23"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9006,6 +9006,7 @@
     <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">

--- a/const/game_numerics/technologies.xlsx
+++ b/const/game_numerics/technologies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="320" windowWidth="32180" windowHeight="17080"/>
+    <workbookView xWindow="620" yWindow="320" windowWidth="29020" windowHeight="17480" firstSheet="2" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="住宅" sheetId="1" r:id="rId1"/>
@@ -768,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1987,7 +1987,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J23"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3426,10 +3426,15 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I23"/>
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
@@ -4106,7 +4111,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I23"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4887,7 +4892,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I23"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5571,7 +5576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:I23"/>
     </sheetView>
   </sheetViews>
@@ -14239,7 +14244,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J23"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/const/game_numerics/technologies.xlsx
+++ b/const/game_numerics/technologies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="80" windowWidth="22980" windowHeight="17140"/>
+    <workbookView xWindow="420" yWindow="0" windowWidth="22960" windowHeight="16440" tabRatio="739" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="住宅" sheetId="1" r:id="rId1"/>
@@ -110,10 +110,6 @@
   </si>
   <si>
     <t>train_max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dinasour_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -286,6 +282,10 @@
   </si>
   <si>
     <t>produce_rate(/h)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dinosaur_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>2</v>
@@ -722,7 +722,7 @@
       <c r="H1" s="9"/>
       <c r="J1" s="6"/>
       <c r="K1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
@@ -1986,7 +1986,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>12</v>
@@ -1998,7 +1998,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2014,10 +2014,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -2741,7 +2741,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>12</v>
@@ -2753,7 +2753,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2769,10 +2769,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -3483,10 +3483,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>12</v>
@@ -3498,7 +3498,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3514,10 +3514,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -4232,10 +4232,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>12</v>
@@ -4247,7 +4247,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -4265,10 +4265,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -5056,10 +5056,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>12</v>
@@ -5071,7 +5071,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -5087,10 +5087,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -5806,10 +5806,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>12</v>
@@ -5821,7 +5821,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -5837,10 +5837,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -6543,12 +6543,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
@@ -6556,10 +6557,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>12</v>
@@ -6571,7 +6572,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -6587,10 +6588,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -7307,10 +7308,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>12</v>
@@ -7322,7 +7323,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -7338,10 +7339,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -8058,10 +8059,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>12</v>
@@ -8073,7 +8074,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8089,10 +8090,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -8806,10 +8807,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>12</v>
@@ -8821,7 +8822,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8837,10 +8838,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -9560,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>13</v>
@@ -9572,7 +9573,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="6"/>
       <c r="J1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -9588,10 +9589,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
@@ -10311,10 +10312,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>12</v>
@@ -10326,7 +10327,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -10342,10 +10343,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -11059,10 +11060,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11070,7 +11071,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11078,7 +11079,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11086,7 +11087,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11094,7 +11095,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11102,7 +11103,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11110,7 +11111,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -11118,7 +11119,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11126,7 +11127,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11134,7 +11135,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -11142,7 +11143,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -11150,7 +11151,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -11158,7 +11159,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -11166,7 +11167,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -11174,7 +11175,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -11182,7 +11183,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11190,7 +11191,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -11198,7 +11199,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -11206,7 +11207,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -11214,7 +11215,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -11222,7 +11223,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -11240,7 +11241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -11269,7 +11270,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -11285,10 +11286,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -12011,7 +12012,8 @@
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -12031,7 +12033,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -12047,10 +12049,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -12764,14 +12766,16 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="7" max="8" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -12791,7 +12795,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -12807,10 +12811,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -13524,7 +13528,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B3:B23"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13557,7 +13561,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -13579,7 +13583,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
@@ -14334,7 +14338,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>12</v>
@@ -14346,7 +14350,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -14364,10 +14368,10 @@
         <v>5</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>6</v>
@@ -15199,7 +15203,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15215,7 +15219,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>17</v>
@@ -15230,7 +15234,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -15247,10 +15251,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>6</v>
@@ -16035,10 +16039,10 @@
         <v>8</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>12</v>
@@ -16050,7 +16054,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -16067,10 +16071,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>6</v>
